--- a/Data/Places.xlsx
+++ b/Data/Places.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace\Selenium-esky\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaazhisai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51306306-5CCF-4E26-BE1F-8FEDB396198F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DA3D18-5FE4-44BA-B754-AADB3CAB14BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C7C7F03-B053-4009-918C-FDA176C3065E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>FromCity</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>MAA</t>
-  </si>
-  <si>
-    <t>DEL</t>
-  </si>
-  <si>
-    <t>ORD</t>
-  </si>
-  <si>
-    <t>JFK</t>
   </si>
 </sst>
 </file>
@@ -409,7 +400,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,15 +426,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
